--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,23 +14,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
   <si>
     <t>Lakshya Garg</t>
   </si>
   <si>
+    <t>Reshu</t>
+  </si>
+  <si>
+    <t>Sweta</t>
+  </si>
+  <si>
+    <t>Lakshya.garg2004@gmail.com</t>
+  </si>
+  <si>
     <t>garglakshya635@gmail.com</t>
   </si>
   <si>
-    <t>nsnlnlanlan</t>
+    <t>ewennnkjnjdnkj</t>
+  </si>
+  <si>
+    <t>We are doing a nice work for the society</t>
+  </si>
+  <si>
+    <t>NIce demo of heart rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,12 +95,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,21 +413,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:C6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -43,12 +43,21 @@
     <t>Sweta</t>
   </si>
   <si>
+    <t>Sarthak</t>
+  </si>
+  <si>
+    <t>Rigved</t>
+  </si>
+  <si>
     <t>Lakshya.garg2004@gmail.com</t>
   </si>
   <si>
     <t>garglakshya635@gmail.com</t>
   </si>
   <si>
+    <t>sarthaksachan404@gmail.com</t>
+  </si>
+  <si>
     <t>ewennnkjnjdnkj</t>
   </si>
   <si>
@@ -56,6 +65,15 @@
   </si>
   <si>
     <t>NIce demo of heart rate</t>
+  </si>
+  <si>
+    <t>njnjnwnjnwdkjnkn</t>
+  </si>
+  <si>
+    <t>enklewnklwnnkj</t>
+  </si>
+  <si>
+    <t>knlncjqnckjqnjkqn</t>
   </si>
 </sst>
 </file>
@@ -413,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -455,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -466,10 +484,43 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Rigved</t>
   </si>
   <si>
+    <t>ieee</t>
+  </si>
+  <si>
     <t>Lakshya.garg2004@gmail.com</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>sarthaksachan404@gmail.com</t>
   </si>
   <si>
+    <t>rigvedbhargav@gmail.com</t>
+  </si>
+  <si>
     <t>ewennnkjnjdnkj</t>
   </si>
   <si>
@@ -74,6 +80,23 @@
   </si>
   <si>
     <t>knlncjqnckjqnjkqn</t>
+  </si>
+  <si>
+    <t>Nice website</t>
+  </si>
+  <si>
+    <t>tsyrsyrsytd</t>
+  </si>
+  <si>
+    <t>Good Work on this website</t>
+  </si>
+  <si>
+    <t>Yo man _x005F_x000D_
+I am sending you an email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The website is working fire_x000D_
+</t>
   </si>
 </sst>
 </file>
@@ -431,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,10 +485,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -473,10 +496,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -484,10 +507,10 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -495,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -506,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -517,10 +540,76 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -95,8 +95,11 @@
 I am sending you an email</t>
   </si>
   <si>
-    <t xml:space="preserve">The website is working fire_x000D_
+    <t xml:space="preserve">The website is working fire_x005F_x000D_
 </t>
+  </si>
+  <si>
+    <t>nigga you are doing great</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,6 +615,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="20" spans="4:6">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>nigga you are doing great</t>
+  </si>
+  <si>
+    <t>Hello world</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,6 +629,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="21" spans="4:6">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
